--- a/docs/testCases/firstSprint/4.TestCase-Home-Main.xlsx
+++ b/docs/testCases/firstSprint/4.TestCase-Home-Main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_Project\docs\testCases\firstSprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\firstSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B543ED78-920A-4A44-BC1E-96CCD163AE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8CE882-5EB3-4B7A-9F1B-CDF7DFCCF020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18975" yWindow="0" windowWidth="19530" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7485" yWindow="5145" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -124,6 +124,23 @@
   </si>
   <si>
     <t>Design should meet requirements listed in Figma "Design System" part.</t>
+  </si>
+  <si>
+    <t>Main section : Moble phone: 1. Photo with code is to small. 2. Main headline is sticked with down text . 3. Two phone picture is to small. 4.Headline "Simple UI &amp; UX" is sticked to down text.
+Tablet 1.Photo with code is to big needs to be smaller from top and left side and a bit lower 2. Headline and text section have no font color and size, and need to have space between text. 3. Phone pictures size to big. 4. Headline and text section have no font color and size, and need to have space between text.
+Web size. 1.Photo with code is to big needs to be smaller from top and left side and a bit lower   2. Headline and text section have no font color and size, and need to have space between text. 3. Phone pictures size to big.  And need to be more to the left side.4. Headline and text section have no font color and size, and need to have space between text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As expected		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -654,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +778,9 @@
         <v>9</v>
       </c>
       <c r="I6" s="21"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -990,10 +1009,14 @@
         <v>27</v>
       </c>
       <c r="E20" s="34"/>
-      <c r="F20" s="27"/>
+      <c r="F20" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="27"/>
+      <c r="I20" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
     </row>
@@ -1009,10 +1032,14 @@
         <v>32</v>
       </c>
       <c r="E21" s="34"/>
-      <c r="F21" s="27"/>
+      <c r="F21" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="27"/>
+      <c r="I21" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
     </row>
@@ -1028,76 +1055,23 @@
         <v>31</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="27"/>
+      <c r="I22" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>4</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>5</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>6</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
+  <mergeCells count="45">
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>

--- a/docs/testCases/firstSprint/4.TestCase-Home-Main.xlsx
+++ b/docs/testCases/firstSprint/4.TestCase-Home-Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\firstSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8CE882-5EB3-4B7A-9F1B-CDF7DFCCF020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7304BED-C885-4EC6-8E19-04B058B20A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="5145" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>As a visitor, I should be able to see what the company offers.</t>
   </si>
   <si>
-    <t>Go to the web pagelink: https://stranger-team-project-61ydf6mit-jkilius-projects.vercel.app/</t>
-  </si>
-  <si>
     <t>This link should redirect me to main page</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Go to the web pagelink: https://stranger-team-pay-api-project.vercel.app/</t>
   </si>
 </sst>
 </file>
@@ -320,13 +320,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -334,38 +332,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -380,16 +348,48 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,23 +674,23 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
@@ -701,25 +701,25 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -735,10 +735,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -763,25 +763,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="17" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -800,28 +800,28 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="15"/>
@@ -830,7 +830,7 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -840,7 +840,7 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="15"/>
@@ -849,7 +849,7 @@
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -859,7 +859,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="15"/>
@@ -868,7 +868,7 @@
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -878,7 +878,7 @@
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="15"/>
@@ -887,7 +887,7 @@
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -897,7 +897,7 @@
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="15"/>
@@ -906,7 +906,7 @@
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -916,8 +916,8 @@
       <c r="A14" s="9">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>29</v>
+      <c r="B14" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -925,7 +925,7 @@
       <c r="F14" s="9">
         <v>6</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -962,60 +962,60 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="27" t="s">
-        <v>34</v>
+      <c r="E20" s="12"/>
+      <c r="F20" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="27" t="s">
-        <v>35</v>
+      <c r="I20" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
@@ -1024,21 +1024,21 @@
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="34" t="s">
+      <c r="B21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="27" t="s">
-        <v>33</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="27" t="s">
-        <v>36</v>
+      <c r="I21" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
@@ -1047,58 +1047,27 @@
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="27" t="s">
-        <v>34</v>
+      <c r="E22" s="12"/>
+      <c r="F22" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="27" t="s">
-        <v>37</v>
+      <c r="I22" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1113,6 +1082,37 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
